--- a/UNEDUCADED.xlsx
+++ b/UNEDUCADED.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnEduCADed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -394,20 +395,20 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,26 +1501,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="21" width="3.25" customWidth="1"/>
+    <col min="9" max="21" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="4.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1542,7 +1543,7 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1568,7 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>61</v>
       </c>
@@ -1592,7 +1593,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1617,31 +1618,31 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="4.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+    <row r="5" spans="1:21" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1663,37 +1664,37 @@
       <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="14" t="s">
         <v>58</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+    <row r="7" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="3">
         <v>17</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1771,7 +1772,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1810,7 +1811,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1849,7 +1850,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -1888,7 +1889,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -1966,7 +1967,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -2005,7 +2006,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>9</v>
       </c>
@@ -2083,7 +2084,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -2122,7 +2123,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -2161,7 +2162,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -2200,7 +2201,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>13</v>
       </c>
@@ -2239,7 +2240,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="4.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2262,10 +2263,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:21" ht="13.2" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="P6:S6"/>
